--- a/11/1/2/Ventas de vivienda 2010 a 2021 - Trimestral.xlsx
+++ b/11/1/2/Ventas de vivienda 2010 a 2021 - Trimestral.xlsx
@@ -958,7 +958,7 @@
         <v>41</v>
       </c>
       <c r="B40">
-        <v>16940</v>
+        <v>16975</v>
       </c>
       <c r="C40">
         <v>8393</v>
@@ -968,6 +968,9 @@
       <c r="A41" t="s">
         <v>42</v>
       </c>
+      <c r="B41">
+        <v>12552</v>
+      </c>
       <c r="C41">
         <v>6429</v>
       </c>
@@ -976,6 +979,9 @@
       <c r="A42" t="s">
         <v>43</v>
       </c>
+      <c r="B42">
+        <v>9928</v>
+      </c>
       <c r="C42">
         <v>4361</v>
       </c>
@@ -984,6 +990,9 @@
       <c r="A43" t="s">
         <v>44</v>
       </c>
+      <c r="B43">
+        <v>7577</v>
+      </c>
       <c r="C43">
         <v>3065</v>
       </c>
@@ -992,6 +1001,9 @@
       <c r="A44" t="s">
         <v>45</v>
       </c>
+      <c r="B44">
+        <v>13563</v>
+      </c>
       <c r="C44">
         <v>6493</v>
       </c>
@@ -1000,6 +1012,9 @@
       <c r="A45" t="s">
         <v>46</v>
       </c>
+      <c r="B45">
+        <v>17254</v>
+      </c>
       <c r="C45">
         <v>8753</v>
       </c>
@@ -1007,6 +1022,9 @@
     <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>47</v>
+      </c>
+      <c r="B46">
+        <v>15730</v>
       </c>
       <c r="C46">
         <v>7528</v>
